--- a/meta/en/9-2-1.xlsx
+++ b/meta/en/9-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -100,9 +100,6 @@
     <t>9.2. Promote inclusive and sustainable industrialization and, by 2030, significantly raise industry's share of employment and gross domestic product, in line with national circumstances, and double its share in least developed countries</t>
   </si>
   <si>
-    <t>9.2.1. Manufacturing value added as a proportion of GDP and per capita</t>
-  </si>
-  <si>
     <t>National Statistical Committee of the Kyrgyz Republic
 (Economic Statistics and National Accounts Division)</t>
   </si>
@@ -114,9 +111,6 @@
   </si>
   <si>
     <t>(0312) 32 46 95</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t>Manufacturing value added (MVA) as a proportion of gross domestic product (GDP) is a ratio between MVA and GDP in the country.</t>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>9.2.1 Manufacturing value added as a proportion of GDP and per capita</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,7 +681,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -755,7 +755,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
